--- a/medicine/Médecine vétérinaire/Auxiliaire_vétérinaire/Auxiliaire_vétérinaire.xlsx
+++ b/medicine/Médecine vétérinaire/Auxiliaire_vétérinaire/Auxiliaire_vétérinaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auxiliaire_v%C3%A9t%C3%A9rinaire</t>
+          <t>Auxiliaire_vétérinaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’auxiliaire vétérinaire est le professionnel de la science vétérinaire qui effectue des procédures de manière autonome ou semi-autonome, dans le cadre d'un système d'assistance vétérinaire.
 Le document varie à travers le monde, et les titres communs incluent infirmier vétérinaire, technicien vétérinaire et auxiliaire vétérinaire et des variantes avec le préfixe de «santé animale» dans certains pays.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auxiliaire_v%C3%A9t%C3%A9rinaire</t>
+          <t>Auxiliaire_vétérinaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'auxiliaire vétérinaire peut effectuer de nombreuses tâches, allant de l'entretien des locaux et du matériel à la gestion courante, en passant, bien sûr, par les soins aux animaux. Plus la structure est importante, plus son rôle se spécialise. La polyvalence et l'adaptabilité sont essentielles à ce métier :
 L'auxiliaire vétérinaire est chargé(e) d'accueillir les clients, au téléphone comme à l'accueil, de les renseigner, de gérer les rendez-vous, de délivrer les produits dans le respect de la règlementation. Elle (il) tient la caisse et peut être amené(e) à assurer la comptabilité courante.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auxiliaire_v%C3%A9t%C3%A9rinaire</t>
+          <t>Auxiliaire_vétérinaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-En France, les termes d'auxiliaire spécialisé vétérinaire (ASV) et d'auxiliaire vétérinaire qualifié (AVQ) sont tous deux des termes reliant le même métier à un échelon différent et des responsabilités différentes.
-Classification des emplois : la convention collective nationale des cabinets et cliniques vétérinaires[1] concerne tous les salariés des vétérinaires libéraux qui ne sont pas vétérinaires eux-mêmes. La convention collective divise les employés en plusieurs échelons de dénomination précise : seuls les trois derniers échelons concernent les auxiliaires vétérinaires.
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les termes d'auxiliaire spécialisé vétérinaire (ASV) et d'auxiliaire vétérinaire qualifié (AVQ) sont tous deux des termes reliant le même métier à un échelon différent et des responsabilités différentes.
+Classification des emplois : la convention collective nationale des cabinets et cliniques vétérinaires concerne tous les salariés des vétérinaires libéraux qui ne sont pas vétérinaires eux-mêmes. La convention collective divise les employés en plusieurs échelons de dénomination précise : seuls les trois derniers échelons concernent les auxiliaires vétérinaires.
 Personnel de nettoyage et d'entretien des locaux - Echelon 1
 Personnel d’accueil et de secrétariat - Echelon 2
 Auxiliaire Vétérinaire (assure des soins aux animaux, sans être titulaire d'une formation homologuée) - Echelon 3
@@ -573,11 +592,46 @@
 En ligne (formation à distance avec stage en cabinet ou clinique vétérinaire) : IFSA, CNFDI, EFM Métiers Animaliers, LA NURSERIE. Cette dernière formation propose par exemple un cursus menant au titre d'AASV ou Auxiliaire Animalier en Santé Vétérinaire. À savoir que la société qui propose cette formation en ligne, WIZZVET, est spécialisée dans le transfert de connaissance entre vétérinaires par l'intermédiaire de WebConférences. Elle est donc connue des vétérinaires.
 Sup veto: formation privée en présentiel
 Le nom donné à ces formations alternatives est variable et joue souvent de la proximité avec l'appellation homologuée (Aide-Soignant Spécialisé de la Santé Vétérinaire, Auxiliaire Animalier en Santé Animale...). 
-Ces formations privées mèneront, tout comme le statut d'une auxiliaire débutante sans formation à être embauché à l'échelon 3 (cf définition des échelons dans la convention collective[1]). 
+Ces formations privées mèneront, tout comme le statut d'une auxiliaire débutante sans formation à être embauché à l'échelon 3 (cf définition des échelons dans la convention collective). 
 Seule la formation ASV proposée par APFORM et délivrant le titre “ASV GIPSA” est homologuée et reconnue par la profession vétérinaire. 
-L'accès aux contrats de professionnalisation ou d'apprentissage étant difficile (limites d'âges, nombre de places limité...), les autres formations sont souvent utilisées pour acquérir des connaissances de base sur le métier d'auxiliaire vétérinaire et peuvent être mentionnées sur un CV. Par la suite, avec un titre d'échelon 3 et un an d'expérience en cabinet ou clinique vétérinaire, il est possible de passer par une VAE (Validation des Acquis de l'Expérience[2]) pour obtenir le titre d'échelon 5 Auxiliaire Spécialisé Vétérinaire.
-En Suisse
-En Suisse l’auxiliaire vétérinaire est appelé Assistant en médecine vétérinaire. La formation est également un contrat d'apprentissage, comme en France, mais la durée est de 3 ans. Comme pour la France, elle est accessible aux candidat(e)s âgé(e) d'au minimum 18 ans.
+L'accès aux contrats de professionnalisation ou d'apprentissage étant difficile (limites d'âges, nombre de places limité...), les autres formations sont souvent utilisées pour acquérir des connaissances de base sur le métier d'auxiliaire vétérinaire et peuvent être mentionnées sur un CV. Par la suite, avec un titre d'échelon 3 et un an d'expérience en cabinet ou clinique vétérinaire, il est possible de passer par une VAE (Validation des Acquis de l'Expérience) pour obtenir le titre d'échelon 5 Auxiliaire Spécialisé Vétérinaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auxiliaire_vétérinaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_v%C3%A9t%C3%A9rinaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formation (attention cet article fait la promotion d'une formation en particulier, à savoir celle d'APFORM)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Suisse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse l’auxiliaire vétérinaire est appelé Assistant en médecine vétérinaire. La formation est également un contrat d'apprentissage, comme en France, mais la durée est de 3 ans. Comme pour la France, elle est accessible aux candidat(e)s âgé(e) d'au minimum 18 ans.
 Il existe plusieurs écoles de formations (par exemple à Lausanne). Il s'agit d'effectuer un travail en entreprise alterné avec des cours dans le centre de formation. Contrairement à la France, il ne s'agit pas de faire 1 semaine en cours par mois et le reste en entreprise, on y passe un jour par semaine (ici le jeudi) et le reste chez le patron.
 </t>
         </is>
